--- a/biology/Botanique/Boletus_atkinsonii/Boletus_atkinsonii.xlsx
+++ b/biology/Botanique/Boletus_atkinsonii/Boletus_atkinsonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus atkinsonii, Bolet d'Atkinson, est une espèce de champignons basidiomycètes, comestible rare, du genre Boletus, de la famille des Boletaceae. Comme Boletus edulis en Europe, dont il présente la même morphologie tout en se distinguant par un chapeau gris, rugueux et froissé, il a longtemps été considéré comme une variété, pour devenir une espèce à part entière lors des analyses phylogénétiques dans un des clades du groupe des edulis sensu lato[précision nécessaire].
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial
-Boletus atkinsonii (Peck, 1904)[1]
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus atkinsonii (Peck, 1904)
 </t>
         </is>
       </c>
@@ -545,20 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyménophore
-Le chapeau est de 6 à 25 cm de diamètre, initialement de forme convexe, avant de s'aplatir en vieillissant, presque plat et sec ; finement rugueux, un peu ridé ; devenant souvent craqué en âge. Un peu alvéolé, tomenteux, puis souvent craquelé-aréolé avec l'âge, brun ou brun jaunâtre, à marge unie[2].
-Cuticule
-La surface est rugueuse ou légèrement tomenteuse, de couleur brun grisâtre au brun jaunâtre.
-Chair
-La chair épaisse est blanc et ne bleuit pas quand on l'écrase, elle réagit à l'ammoniaque et devient pourpre.
-Hyménium
-Les pores sont blancs quand ils sont jeunes, devenant jaunâtres ou jaune brunâtre.
-Stipe
-Le stipe va de 5 à 12 cm de long et de 1 à 3 cm d'épaisseur. Il est sec, solide, blanchâtre ou brunâtre et présente des proéminences réticulées aux arêtes brunâtres.
-Sporée
-L'impression de la sporée  est brun jaunâtre.
-Spores
-Les spores sont ellipsoïdes à subfusiformes, lisses, jaune pâle, 11,5-13,5 x 4-5 µm
+          <t>Hyménophore</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est de 6 à 25 cm de diamètre, initialement de forme convexe, avant de s'aplatir en vieillissant, presque plat et sec ; finement rugueux, un peu ridé ; devenant souvent craqué en âge. Un peu alvéolé, tomenteux, puis souvent craquelé-aréolé avec l'âge, brun ou brun jaunâtre, à marge unie.
 </t>
         </is>
       </c>
@@ -584,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce champignon mycorhize avec des feuillus, surtout de chênes et de hêtres. Les sporophores sont seuls, dispersés, ou grégaires, de l'été à l'automne. Il est largement distribué dans l'est de l'Amérique du Nord.
+          <t>Cuticule</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface est rugueuse ou légèrement tomenteuse, de couleur brun grisâtre au brun jaunâtre.
 </t>
         </is>
       </c>
@@ -615,12 +631,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Saison</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce champignon se développe à la fin de l'été, du mois d'août à la mi-septembre
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chair épaisse est blanc et ne bleuit pas quand on l'écrase, elle réagit à l'ammoniaque et devient pourpre.
 </t>
         </is>
       </c>
@@ -646,12 +668,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce champignon est un excellent comestible, même cru, mais souvent véreux.
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pores sont blancs quand ils sont jeunes, devenant jaunâtres ou jaune brunâtre.
 </t>
         </is>
       </c>
@@ -677,10 +705,222 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Stipe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe va de 5 à 12 cm de long et de 1 à 3 cm d'épaisseur. Il est sec, solide, blanchâtre ou brunâtre et présente des proéminences réticulées aux arêtes brunâtres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sporée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'impression de la sporée  est brun jaunâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spores</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spores sont ellipsoïdes à subfusiformes, lisses, jaune pâle, 11,5-13,5 x 4-5 µm
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon mycorhize avec des feuillus, surtout de chênes et de hêtres. Les sporophores sont seuls, dispersés, ou grégaires, de l'été à l'automne. Il est largement distribué dans l'est de l'Amérique du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon se développe à la fin de l'été, du mois d'août à la mi-septembre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon est un excellent comestible, même cru, mais souvent véreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_atkinsonii</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus nobilissimus, récemment décrit, paraît être à peu près identique à Boletus atkinsonii.
 Boletus variipes, proche, diffère par une stature moins élancée et un stipe avec des réticulations plus évidentes.
